--- a/Mechanical/CAD/PART NUMBER LIST.xlsx
+++ b/Mechanical/CAD/PART NUMBER LIST.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>NUMBER</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>PCB LAYOUT SKETCH</t>
+  </si>
+  <si>
+    <t>QUADRATURE ENCODER, BOURNES PEC12R-2xxxF-Nxxxx</t>
+  </si>
+  <si>
+    <t>AWK-105-0008</t>
   </si>
 </sst>
 </file>
@@ -99,8 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B9"/>
+  <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,8 +485,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Mechanical/CAD/PART NUMBER LIST.xlsx
+++ b/Mechanical/CAD/PART NUMBER LIST.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>NUMBER</t>
   </si>
@@ -70,6 +70,39 @@
   </si>
   <si>
     <t>AWK-105-0008</t>
+  </si>
+  <si>
+    <t>AWK-105-0010</t>
+  </si>
+  <si>
+    <t>AWK-105-0011</t>
+  </si>
+  <si>
+    <t>PHILLIPS PAN HEAD SCREW, 4-40x.25, 18-8 SS</t>
+  </si>
+  <si>
+    <t>AWK-105-0012</t>
+  </si>
+  <si>
+    <t>NUT, METRIC M2, 18-8 SS</t>
+  </si>
+  <si>
+    <t>AWK-105-0013</t>
+  </si>
+  <si>
+    <t>PHILLIPS PAN HEAD SCREW, METRIC M2 x 4mm, 18-8 SS</t>
+  </si>
+  <si>
+    <t>AWK-105-0014</t>
+  </si>
+  <si>
+    <t>CONTROL KNOB</t>
+  </si>
+  <si>
+    <t>HOUSING DRAWINGS, VOLTMETER CLOCK</t>
+  </si>
+  <si>
+    <t>ASSEMBLY DRAWINGS, VOLTMETER CLOCK</t>
   </si>
 </sst>
 </file>
@@ -409,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B10"/>
+  <dimension ref="A2:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,6 +524,54 @@
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanical/CAD/PART NUMBER LIST.xlsx
+++ b/Mechanical/CAD/PART NUMBER LIST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>NUMBER</t>
   </si>
@@ -103,6 +103,57 @@
   </si>
   <si>
     <t>ASSEMBLY DRAWINGS, VOLTMETER CLOCK</t>
+  </si>
+  <si>
+    <t>AWK-105-0015</t>
+  </si>
+  <si>
+    <t>AWK-105-0016</t>
+  </si>
+  <si>
+    <t>AWK-105-1017</t>
+  </si>
+  <si>
+    <t>SCREEN PRINT ARTWORK, TOP FACE</t>
+  </si>
+  <si>
+    <t>SCREEN PRINT ARTWORK, FRONT FACE</t>
+  </si>
+  <si>
+    <t>PART NUMBER</t>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>BUILD TO PRINT</t>
+  </si>
+  <si>
+    <t>.060" ALUM SHEET</t>
+  </si>
+  <si>
+    <t>FINISH</t>
+  </si>
+  <si>
+    <t>POWDER COAT (COLOR TBD),
+SCREEN PRINT</t>
+  </si>
+  <si>
+    <t>POWDER COAT (COLOR TBD)</t>
+  </si>
+  <si>
+    <t>ITEM NUMBER</t>
+  </si>
+  <si>
+    <t>AWK-105-0010,
+AWK-105-0016,
+AWK-105-0017</t>
+  </si>
+  <si>
+    <t>REFERENCE DRAWING / ARTWORK</t>
   </si>
 </sst>
 </file>
@@ -126,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,13 +185,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B17"/>
+  <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,10 +641,26 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -582,12 +671,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A4:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
